--- a/biology/Biologie cellulaire et moléculaire/Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne/Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne/Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en acyl-coenzyme A déshydrogénase des acides gras à chaîne moyenne (en anglais Medium-chain acyl-coenzyme A dehydrogenase deficiency), plus connu sous le nom de déficit en MCAD ou MCADD est un trouble de l'oxydation des acides gras qui rend l'organisme incapable de décomposer les chaînes  moyennes d'acides gras acyl-coA vers l'acétyl-coA. Ce trouble est responsable d'hypoglycémie pouvant entrainer la mort subite si une intervention rapide de supplémentation en glucose n'est pas engagée ; il survient le plus souvent lors de périodes de jeûne trop importante entre deux repas ou après des vomissements.
 Avant l'élargissement du dépistage néonatal par le test du buvard, la MCADD était la cause de mort subite du nourrisson la plus fréquemment sous-diagnostiquée. Lorsque la maladie est diagnostiquée avant l'apparition des symptômes, le pronostic des patients est excellent.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La MCADD se manifeste dans la toute petite enfance par des hypoglycémies hypocétonémiques et un dysfonctionnement hépatique survenant souvent dans des périodes interprandiales trop longues ou à l'occasion d'une infection même mineure entrainant une anorexie et, ou, en présence de vomissements. Les nourrissons qui sont exclusivement nourris au sein peuvent présenter, peu de temps après la naissance, les mêmes symptômes s'ils tètent insuffisamment en quantité ou en fréquence. Chez certains patients, la première manifestation de la MCADD peut être la mort subite, sans cause apparente ou dans le cadre d'une maladie mineure. Un certain nombre de nourrissons porteurs de la MCADD peuvent être complètement asymptomatiques, si les circonstances de ne les ont jamais exposés à une situation d'hypoglycémie. Avec l'avènement de l'élargissement du dépistage néonatal, certaines mères ont rétroactivement été dépistées porteuses de la MCADD, après que leur enfant a été détecté positif au test néonatal du buvard portant sur le niveau de carnitine.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Physiologiquement, l'enzyme MCAD est responsable de l'étape de déshydrogénation des acides gras dont la chaîne est longue de 6 à 12 atomes de carbone, lors de la bêta-oxydation à l'intérieur des mitochondries. La bêta-oxydation des acides gras a pour but de fournir de l'énergie à l'organisme lorsque celui-ci a déjà utilisé toutes ses réserves de glucose et de glycogène. Cette oxydation se produit donc pendant les périodes de jeûne, après la période post-prandiale qui, elle, est abondante en glucose, ou lors d'une maladie lorsque l'apport calorique est réduit et souvent en même temps les besoins énergétiques augmentés (c'est le cas par exemple lors d'une infection surtout s'il y a de la fièvre).
 Si cette enzyme manque ou ne fonctionne pas, une fois épuisée toute sa réserve de glucose et de glycogène, l'organisme n'a plus aucune source d'énergie, puisqu'il ne peut pas utiliser en dégradant par la déshydrogénase, qui est absente ou défaillante, ses acides gras à chaine moyenne qu'il stocke en particulier dans le foie pour les transformer en glucose.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La MCADD est transmise selon le mode autosomique récessif, ce qui signifie qu'une personne touchée a hérité d'un allèle muté (un des deux exemplaires d'un gène) de ses deux parents. Le gène impliqué est appelé  ACADM[1], il est situé sur le gène 1, position 31, avec 12 exons et codant une protéine de 421 acides aminés.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La MCADD est transmise selon le mode autosomique récessif, ce qui signifie qu'une personne touchée a hérité d'un allèle muté (un des deux exemplaires d'un gène) de ses deux parents. Le gène impliqué est appelé  ACADM, il est situé sur le gène 1, position 31, avec 12 exons et codant une protéine de 421 acides aminés.
 Il y a une mutation commune en Europe du Nord, la mutation 985A&gt;G, où une lysine est remplacée par un acide glutamique en position 304 de la protéine. De nombreuses autres mutations ont été identifiées depuis la généralisation du dépistage néonatal, ce qui a élargi le spectre connu des mutations. La mutation 985A&gt;G est présente dans les gènes homozygotes de 80 % des personnes de race blanche qui présentent des signes cliniques de MCADD et chez 60 % des nouveau-nés lorsqu'ils ont été diagnostiqués par le dépistage systématique.
 Le génotype d'un individu n'est pas en corrélation directe avec le phénotype en ce qui concerne la MCADD. L'état clinique d'une personne porteuse de la MCADD ne dépend donc pas seulement de la présence de mutations dans son gène ACADM, mais aussi de la présence de stress environnementaux, physiologiques ou pathologiques qui obligent son organisme à dépendre de l'oxydation des acides gras pour produire de l'énergie. Certaines mutations qui ont été identifiées dans les programmes de dépistage néonatal sont associées à une certaine activité enzymatique résiduelle, mais ces types de mutation n'ont pas été observées chez les individus présentant des symptômes cliniques de MCADD. Malgré cela, le traitement préventif par le respect d'un espacement inter-prandial modéré reste la norme pour tous ces individus.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cliniquement, la MCADD ou un autre trouble de l'oxydation des acides gras est suspectée chez des personnes qui se présentent avec un état léthargique, des convulsions, un coma ou une hypoglycémie hypocétonémique, en particulier si cet état est déclenché par une maladie mineure. Mais si la MCADD est présente en même temps qu'une maladie hépatique aiguë avec hépatomégalie, cela peut conduire à une confusion diagnostique avec le syndrome de Reye. 
 Chez certaines personnes, la seule et unique manifestation de la MCADD est la mort subite et inexpliquée, souvent précédée par une maladie mineure qui n'est ordinairement pas létale.
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,14 +669,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-En France, la Haute Autorité de santé recommande le dépistage de la MCADD depuis 2011. Le ministère de la santé a longtemps tardé à équiper les laboratoires chargés des dépistages néonataux pour traiter celui de la MCADD et de plusieurs autres maladies[2],[3]. Mais depuis le 1er décembre 2020, tous les nouveau-nés sont dépistés pour la MCADD[4].
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la Haute Autorité de santé recommande le dépistage de la MCADD depuis 2011. Le ministère de la santé a longtemps tardé à équiper les laboratoires chargés des dépistages néonataux pour traiter celui de la MCADD et de plusieurs autres maladies,. Mais depuis le 1er décembre 2020, tous les nouveau-nés sont dépistés pour la MCADD.
 Ce sont donc désormais 7 maladies, avec la MCADD, qui sont, en  France, systématiquement dépistées à la naissance :
-la phénylcétonurie depuis 1972, l’hypothyroïdie congénitale depuis 1978, la drépanocytose en Outre-Mer depuis 1985 et 1995 de façon ciblée en métropole, l’hyperplasie congénitale des surrénales depuis 1995, la mucoviscidose depuis  2002 et à la surdité permanente bilatérale depuis 2012[4].
-Au Québec
-Depuis 2011, les enfants nés au Québec sont dépistés pour la MCADD dès la naissance[5].
-Aux États-Unis
-À la suite de la recommandation de l'American College of Medical Genetics, les 50 états offrent le dépistage de la MCADD depuis 2006[6].
+la phénylcétonurie depuis 1972, l’hypothyroïdie congénitale depuis 1978, la drépanocytose en Outre-Mer depuis 1985 et 1995 de façon ciblée en métropole, l’hyperplasie congénitale des surrénales depuis 1995, la mucoviscidose depuis  2002 et à la surdité permanente bilatérale depuis 2012.
 </t>
         </is>
       </c>
@@ -667,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,17 +703,170 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Dépistage</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au Québec</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2011, les enfants nés au Québec sont dépistés pour la MCADD dès la naissance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dépistage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de la recommandation de l'American College of Medical Genetics, les 50 états offrent le dépistage de la MCADD depuis 2006.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme pour la plupart des autres troubles métaboliques liés à l'oxydation des acides gras, les personnes porteuses de la MCADD doivent absolument éviter de jeûner trop longtemps entre deux repas[7]. Ces patients doivent gérer rigoureusement leurs apports alimentaires afin d'éviter toute décompensation métabolique qui est susceptible de leur être fatale. La supplémentation à la demande en glucides simples, tel le glucose, au cours de leur maladie est la clé pour éviter le catabolisme des acides gras que leur maladie empêche de faire correctement et donc leur éviter l'hypoglycémie hypocétonémique.
-Nutrition[8]
-De 0 à 6 mois
-Chez le nourrisson, durant les six premiers mois, le jeûne entre chaque tétée ne doit absolument pas dépasser 3 à 4 heures. L'allaitement maternel reste recommandé, comme pour les nourrissons non atteints de la MCADD. Les substituts de lait maternel enrichis en lipides sont cependant à proscrire.
-De 7 mois à 1 an
-Durant cette période, les périodes de jeûne entre deux prises alimentaires sont peu à peu allongées, en suivant le principe d'environ une heure de plus par mois :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour la plupart des autres troubles métaboliques liés à l'oxydation des acides gras, les personnes porteuses de la MCADD doivent absolument éviter de jeûner trop longtemps entre deux repas. Ces patients doivent gérer rigoureusement leurs apports alimentaires afin d'éviter toute décompensation métabolique qui est susceptible de leur être fatale. La supplémentation à la demande en glucides simples, tel le glucose, au cours de leur maladie est la clé pour éviter le catabolisme des acides gras que leur maladie empêche de faire correctement et donc leur éviter l'hypoglycémie hypocétonémique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nutrition[8]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>De 0 à 6 mois</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez le nourrisson, durant les six premiers mois, le jeûne entre chaque tétée ne doit absolument pas dépasser 3 à 4 heures. L'allaitement maternel reste recommandé, comme pour les nourrissons non atteints de la MCADD. Les substituts de lait maternel enrichis en lipides sont cependant à proscrire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nutrition[8]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>De 7 mois à 1 an</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Durant cette période, les périodes de jeûne entre deux prises alimentaires sont peu à peu allongées, en suivant le principe d'environ une heure de plus par mois :
 5-6 heures à 7 mois,
 6-7 heures à 8 mois,
 7-9 heures à 9 mois,
@@ -706,43 +880,118 @@
 Manger des fruits et des légumes,
 Le lait de coco, l'huile de palmiste et certains beurres sont très riches en Triglycéride à chaîne moyenne (MCT en anglais), et donc à éviter,
 Les plats doivent contenir des sucres lents,
-Éviter les fritures en alimentation quotidienne.
-Après 1 an
-Après un an, les règles précédentes s'appliquent. Tout au long de leur vie, les patients atteints de MCADD doivent garder une alimentation saine et pauvre en lipides. Des exceptions à cette bonne diététique sont cependant tolérées de temps en temps.
-L'apport énergétique
-Durant les premiers mois de vie, le lait maternel et les préparations commerciales couvrent les besoins énergétiques de l'enfant.
-Jusqu'à 18 ans, les apports énergétiques issus des lipides recommandés pour les enfants et adolescents sains (sans trouble métabolique) varient de 25 % à 45 % en fonction de l'âge[9]. Pour les patients atteints de MCADD, il est recommandé de ne jamais dépasser 30 %, et ce à n'importe quel âge[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Éviter les fritures en alimentation quotidienne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nutrition[8]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Après 1 an</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après un an, les règles précédentes s'appliquent. Tout au long de leur vie, les patients atteints de MCADD doivent garder une alimentation saine et pauvre en lipides. Des exceptions à cette bonne diététique sont cependant tolérées de temps en temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L'apport énergétique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant les premiers mois de vie, le lait maternel et les préparations commerciales couvrent les besoins énergétiques de l'enfant.
+Jusqu'à 18 ans, les apports énergétiques issus des lipides recommandés pour les enfants et adolescents sains (sans trouble métabolique) varient de 25 % à 45 % en fonction de l'âge. Pour les patients atteints de MCADD, il est recommandé de ne jamais dépasser 30 %, et ce à n'importe quel âge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Études</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1994 et 2004, une étude a été faite en Australie sur 59 malades atteints de MCADD[10].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1994 et 2004, une étude a été faite en Australie sur 59 malades atteints de MCADD.
 Sur ces 59 personnes, 24 ont été diagnostiquées précocement dans leur vie, ont reçu des conseils diététiques et ont été suivies médicalement, tandis que les 35 autres ont été diagnostiquées plus tardivement.
 Sur les 24 malades diagnostiqués précocement:
 3 ont subi une décompensation sévère incluant un décès néonatal,
@@ -751,40 +1000,42 @@
 23 ont subi une décompensation sévère, y compris 5 décès,
 12 n'ont pas suivi de traitement et n'ont eu aucun problème.
 38 des 52 patients vivants ont effectué des tests neurophysiologiques, et cette étude montre que rien ne suggère "des différences significatives dans les résultats cognitifs généraux entre les groupes" de patients diagnostiqués tôt ou tard dans leur vie.
-En 2005, une autre étude a été faite aux Pays-Bas[11] sur 155 individus néerlandais atteints de déficience en MCAD, âgés de 3 mois à 5 ans. Elle montre des résultats similaires (mortalité élevée avant le diagnostic, risque d'atteintes neurologiques lors des décompensations), celle-ci montre cependant une prédisposition des personnes atteintes de MCADD à l'obésité et pour un tiers d'entre elles, à des troubles mineurs telles que la fatigue, des douleurs musculaires et une tolérance réduite à l'exercice physique[12].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+En 2005, une autre étude a été faite aux Pays-Bas sur 155 individus néerlandais atteints de déficience en MCAD, âgés de 3 mois à 5 ans. Elle montre des résultats similaires (mortalité élevée avant le diagnostic, risque d'atteintes neurologiques lors des décompensations), celle-ci montre cependant une prédisposition des personnes atteintes de MCADD à l'obésité et pour un tiers d'entre elles, à des troubles mineurs telles que la fatigue, des douleurs musculaires et une tolérance réduite à l'exercice physique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Déficit_en_acyl-coenzyme_A_déshydrogénase_des_acides_gras_à_chaîne_moyenne</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9ficit_en_acyl-coenzyme_A_d%C3%A9shydrog%C3%A9nase_des_acides_gras_%C3%A0_cha%C3%AEne_moyenne</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a longtemps été écrit que la population caucasienne d'Europe du Nord était la plus exposée à la déficience en MCAD. Mais des études récentes tendent à montrer qu'il s'agit peut-être d'un biais statistique. En effet ce sont les populations chez lesquelles le dépistage est le plus fréquemment fait et les moyens diagnostics les plus disponibles pour les médecins et les plus accessibles financièrement pour les patients. Si on cherche mieux les malades, on en trouve plus. Le corollaire est qu'en  cherchant moins bien, on en trouve forcément moins.
-Par exemple, le déficit en MCAD a été considéré comme moins courant dans les populations hispaniques, afro-américaines et amérindiennes aux États-Unis. Cependant, cette vision a été corrigée par la mise en œuvre du dépistage systématique chez les nouveau-nés d'origines ethniques différentes. Les données disponibles en Californie démontrent maintenant que la carence en MCAD est aussi répandue chez les Amérindiens (1 : 7 500 naissances) que les natifs d'Europe du Nord, et les prévalences sont similaires chez les nouveau-nés d'origine hispanique, noire et moyen-orientale (1 : 23 000 naissances)[13].
-Fondée sur différentes statistiques de détection néonatale du déficit en MCAD, l'incidence suivante a été établie[13] :
+Par exemple, le déficit en MCAD a été considéré comme moins courant dans les populations hispaniques, afro-américaines et amérindiennes aux États-Unis. Cependant, cette vision a été corrigée par la mise en œuvre du dépistage systématique chez les nouveau-nés d'origines ethniques différentes. Les données disponibles en Californie démontrent maintenant que la carence en MCAD est aussi répandue chez les Amérindiens (1 : 7 500 naissances) que les natifs d'Europe du Nord, et les prévalences sont similaires chez les nouveau-nés d'origine hispanique, noire et moyen-orientale (1 : 23 000 naissances).
+Fondée sur différentes statistiques de détection néonatale du déficit en MCAD, l'incidence suivante a été établie :
 </t>
         </is>
       </c>
